--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TANAY RAJ\Desktop\C++\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TANAY RAJ\Desktop\C++\reminder-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0087548C-6EE2-4C86-B8FB-094AD3ACAF2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65EA979-9BB0-4587-8F90-D886AC19FCAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Work</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>28/11/2020 14:19</t>
+  </si>
+  <si>
+    <t>cdsgds</t>
+  </si>
+  <si>
+    <t>30/11/2020 12:28</t>
+  </si>
+  <si>
+    <t>30/11/2020 12:29</t>
+  </si>
+  <si>
+    <t>I m fine</t>
   </si>
 </sst>
 </file>
@@ -403,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,6 +506,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
